--- a/doc/statusmachine.xlsx
+++ b/doc/statusmachine.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ATXPowerController\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22B75AB-56DD-404C-9056-19998AEC7273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871E86CE-4D0C-4C96-9571-EF1B27904C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{6379B341-8419-44FB-89B2-5BD6D1D005A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="state machine" sheetId="1" r:id="rId1"/>
+    <sheet name="statemachine" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -691,7 +691,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
